--- a/res/testcase/PakringOperation/ParkingManage/PersonalManage.xlsx
+++ b/res/testcase/PakringOperation/ParkingManage/PersonalManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="782" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="147">
   <si>
     <t>动作</t>
   </si>
@@ -265,7 +265,7 @@
     <t>点击人员管理</t>
   </si>
   <si>
-    <t>PersonalManagePage.人员管理</t>
+    <t>PersonalManagePage.收费员帐号</t>
   </si>
   <si>
     <t>3</t>
@@ -470,8 +470,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -489,8 +489,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -498,7 +513,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,46 +575,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,25 +597,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,35 +632,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -648,7 +648,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,13 +726,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,43 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,43 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,61 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,54 +857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -923,8 +875,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,6 +921,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -962,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,133 +974,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1802,8 +1802,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2301,8 +2301,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2558,7 +2558,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2703,7 +2703,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>115</v>
@@ -2756,7 +2756,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2900,7 +2900,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>115</v>
@@ -2947,7 +2947,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3121,7 +3121,7 @@
         <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>115</v>

--- a/res/testcase/PakringOperation/ParkingManage/PersonalManage.xlsx
+++ b/res/testcase/PakringOperation/ParkingManage/PersonalManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="782" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="8895" tabRatio="782" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -468,10 +468,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -490,30 +490,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,8 +595,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +648,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,19 +762,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,31 +804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,97 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,30 +857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -892,6 +868,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +931,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -962,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,133 +974,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1802,8 +1802,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/PakringOperation/ParkingManage/PersonalManage.xlsx
+++ b/res/testcase/PakringOperation/ParkingManage/PersonalManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8895" tabRatio="782" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="782" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -468,10 +468,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -490,6 +490,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -497,15 +511,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,6 +541,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -528,14 +556,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,6 +565,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,38 +602,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,30 +626,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +648,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,13 +684,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,156 +829,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,6 +853,54 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,56 +929,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -948,9 +946,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,10 +962,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,133 +974,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1802,8 +1802,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2062,8 +2062,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
